--- a/src/document/exel/sellers.xlsx
+++ b/src/document/exel/sellers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyectos\DCHEO-LIQUIDACION\Liquidation-Dcheo\src\document\exel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDC2F9E-EB7B-4B09-92C1-05A5ABA39D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA5A377-C83A-4636-AFBA-4893142A0A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5D3C3762-0C94-488D-AECF-944BA6A632D4}"/>
   </bookViews>
@@ -93,17 +93,17 @@
     <t>Estatus</t>
   </si>
   <si>
-    <t>Route</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Solo elimine los campos de color rojo y rellene con los datos que ud necesite</t>
+  </si>
+  <si>
+    <t>ruta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +140,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,7 +174,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -486,7 +494,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +514,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -523,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>

--- a/src/document/exel/sellers.xlsx
+++ b/src/document/exel/sellers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proyectos\DCHEO-LIQUIDACION\Liquidation-Dcheo\src\document\exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\Desktop\archivosMuestra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA5A377-C83A-4636-AFBA-4893142A0A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FF0084-6CFF-481D-BDBA-F91B0CF34BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5D3C3762-0C94-488D-AECF-944BA6A632D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2181451A-A05F-454E-8C7D-82B0597C6CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,85 +25,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>isActive</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
   <si>
     <t>MAURICIO BONE</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Manuel Vera</t>
   </si>
   <si>
+    <t>M3</t>
+  </si>
+  <si>
     <t>STEEVEN ANIBAL MOSQUERA MOSQUERA</t>
   </si>
   <si>
+    <t>M4</t>
+  </si>
+  <si>
     <t>RONAL TUMBACO</t>
   </si>
   <si>
+    <t>M5</t>
+  </si>
+  <si>
     <t>Diogenes Lopez</t>
   </si>
   <si>
+    <t>M6</t>
+  </si>
+  <si>
     <t>Cristhian  Andrade</t>
   </si>
   <si>
+    <t>M7</t>
+  </si>
+  <si>
     <t>Jorge Guerra</t>
   </si>
   <si>
+    <t>M8</t>
+  </si>
+  <si>
     <t>Angel Solano</t>
   </si>
   <si>
+    <t>M9</t>
+  </si>
+  <si>
     <t>JEAN PIERRE</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>M9</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Estatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Solo elimine los campos de color rojo y rellene con los datos que ud necesite</t>
-  </si>
-  <si>
-    <t>ruta</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CARRO 1</t>
+  </si>
+  <si>
+    <t>CARRO 2</t>
+  </si>
+  <si>
+    <t>CARRO 3</t>
+  </si>
+  <si>
+    <t>CARRO 4</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,22 +162,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,14 +183,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,188 +500,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C54C04-2472-4B2C-AD41-6F1F92E9D4DB}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A377AAB-2CE4-4AF5-B243-AE9DF51ECB1F}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F2:H8"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>